--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Shop.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunc2\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D61346E0-8769-499D-B570-984E16C1C100}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96D607-1107-4027-80FC-A73E5C1A4409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopConfig" sheetId="6" r:id="rId1"/>
@@ -18,8 +18,7 @@
     <sheet name="ShopPackage" sheetId="5" r:id="rId3"/>
     <sheet name="ShopPackageDate" sheetId="8" r:id="rId4"/>
     <sheet name="ShopDailyReward" sheetId="7" r:id="rId5"/>
-    <sheet name="ShopCash" sheetId="4" r:id="rId6"/>
-    <sheet name="Description" sheetId="9" r:id="rId7"/>
+    <sheet name="Description" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -822,203 +821,6 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Balloon01</author>
-  </authors>
-  <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{F3D240CB-6BCF-45A6-8B83-5A920E2849D1}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Balloon01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>스토어에</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>등록된</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>.</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{6F959532-C971-464C-8C3C-12E73862DA34}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Balloon01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보여지는</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>이름</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{E59CEEAE-D391-4B6A-974C-2ED02A8725ED}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Balloon01:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>보상</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve"> </t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="돋움"/>
-            <family val="3"/>
-            <charset val="129"/>
-          </rPr>
-          <t>다이아</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Balloon01</author>
     <author>USER</author>
   </authors>
   <commentList>
@@ -2230,7 +2032,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="236">
   <si>
     <t>CostType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2248,10 +2050,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Pid</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Code</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2260,34 +2058,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DiaCount</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldGoods_1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Dia</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>GoldGoods_2</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2312,18 +2086,6 @@
     <t>ShopGoods_Gold4</t>
   </si>
   <si>
-    <t>aniballoon_ruby_2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniballoon_ruby_3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniballoon_ruby_4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>AnalyticsKey</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -2341,12 +2103,6 @@
   </si>
   <si>
     <t>Gold</t>
-  </si>
-  <si>
-    <t>Dia</t>
-  </si>
-  <si>
-    <t>CP</t>
   </si>
   <si>
     <t>DailyRewardFreeCount</t>
@@ -2683,50 +2439,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ShopGoods_Dia5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopGoods_Dia6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopGoods_Dia4</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopGoods_Dia3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopGoods_Dia2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>DiaGoods_6</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ShopGoods_Dia7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniballoon_ruby_05</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniballoon_ruby_06</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>aniballoon_ruby_07</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>2021-06-10 00:00:01</t>
   </si>
   <si>
@@ -2876,10 +2588,6 @@
   </si>
   <si>
     <t>ShopGoods_Package_Fairy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유료 결제 아이템</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -3141,6 +2849,10 @@
   </si>
   <si>
     <t>구매 로그 체크용 값</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ticket</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -3817,7 +3529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D87AB29C-E1F2-4B61-B89B-AE17F633DA96}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3830,13 +3542,13 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -3862,14 +3574,14 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.875" customWidth="1"/>
     <col min="4" max="4" width="9.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
@@ -3878,10 +3590,10 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -3896,7 +3608,7 @@
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3904,13 +3616,13 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E2">
         <v>20</v>
@@ -3919,7 +3631,7 @@
         <v>9004</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -3927,13 +3639,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E3">
         <v>50</v>
@@ -3942,7 +3654,7 @@
         <v>9005</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3950,13 +3662,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -3965,7 +3677,7 @@
         <v>9006</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -3973,13 +3685,13 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" t="s">
         <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>235</v>
       </c>
       <c r="E5">
         <v>260</v>
@@ -3988,7 +3700,7 @@
         <v>9007</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4002,8 +3714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8D44C5-7F8E-4BED-9A14-9BCE480890DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="A4:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4018,10 +3730,10 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -4041,16 +3753,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E2" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F2" s="3">
         <v>20013</v>
@@ -4061,16 +3773,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E3" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F3" s="3">
         <v>20014</v>
@@ -4081,16 +3793,16 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E4" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F4" s="3">
         <v>20015</v>
@@ -4101,16 +3813,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E5" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F5" s="3">
         <v>20016</v>
@@ -4121,16 +3833,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>9</v>
+        <v>235</v>
       </c>
       <c r="E6" s="3">
-        <v>600</v>
+        <v>100</v>
       </c>
       <c r="F6" s="3">
         <v>20017</v>
@@ -4162,16 +3874,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="5" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="3" customFormat="1">
@@ -4179,16 +3891,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="D2" s="10">
         <v>4</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -4196,10 +3908,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D3" s="8">
         <v>5</v>
@@ -4210,10 +3922,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="D4" s="8">
         <v>6</v>
@@ -4224,10 +3936,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="D5" s="8">
         <v>1</v>
@@ -4238,10 +3950,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D6" s="8">
         <v>2</v>
@@ -4252,10 +3964,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="D7" s="8">
         <v>3</v>
@@ -4266,10 +3978,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D8" s="8">
         <v>4</v>
@@ -4280,10 +3992,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="D9" s="8">
         <v>5</v>
@@ -4294,10 +4006,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8">
         <v>6</v>
@@ -4308,10 +4020,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D11" s="8">
         <v>1</v>
@@ -4322,10 +4034,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D12" s="11">
         <v>1</v>
@@ -4336,13 +4048,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -4350,13 +4062,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -4364,13 +4076,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -4378,13 +4090,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4392,13 +4104,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4406,13 +4118,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4420,13 +4132,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4434,13 +4146,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4448,13 +4160,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4462,13 +4174,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4476,13 +4188,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4490,13 +4202,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4504,13 +4216,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4518,13 +4230,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4532,13 +4244,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4546,13 +4258,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4560,13 +4272,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4574,13 +4286,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4588,13 +4300,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4602,13 +4314,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4616,13 +4328,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4630,13 +4342,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4644,13 +4356,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4658,13 +4370,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4672,13 +4384,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4686,13 +4398,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4700,13 +4412,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4714,13 +4426,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4728,13 +4440,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4742,13 +4454,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4756,13 +4468,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4770,13 +4482,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4784,13 +4496,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4798,13 +4510,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4812,13 +4524,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4826,10 +4538,10 @@
         <v>47</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>150</v>
+        <v>127</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>151</v>
+        <v>128</v>
       </c>
       <c r="D48" s="8">
         <v>1</v>
@@ -4840,10 +4552,10 @@
         <v>48</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>152</v>
+        <v>129</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="D49" s="8">
         <v>2</v>
@@ -4854,10 +4566,10 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="D50" s="8">
         <v>3</v>
@@ -4868,10 +4580,10 @@
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="D51" s="8">
         <v>4</v>
@@ -4882,10 +4594,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="D52" s="8">
         <v>5</v>
@@ -4896,10 +4608,10 @@
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="D53" s="8">
         <v>6</v>
@@ -4910,10 +4622,10 @@
         <v>53</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="D54" s="8">
         <v>1</v>
@@ -4924,10 +4636,10 @@
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="D55" s="8">
         <v>2</v>
@@ -4938,10 +4650,10 @@
         <v>55</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="D56" s="8">
         <v>3</v>
@@ -4952,10 +4664,10 @@
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="D57" s="8">
         <v>4</v>
@@ -4966,10 +4678,10 @@
         <v>57</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="D58" s="8">
         <v>5</v>
@@ -4980,10 +4692,10 @@
         <v>58</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="D59" s="8">
         <v>6</v>
@@ -4994,10 +4706,10 @@
         <v>59</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D60" s="8">
         <v>1</v>
@@ -5008,10 +4720,10 @@
         <v>60</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="D61" s="8">
         <v>2</v>
@@ -5022,10 +4734,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="D62" s="8">
         <v>3</v>
@@ -5036,10 +4748,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="D63" s="8">
         <v>4</v>
@@ -5050,10 +4762,10 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="D64" s="8">
         <v>5</v>
@@ -5064,10 +4776,10 @@
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="D65" s="8">
         <v>6</v>
@@ -5083,10 +4795,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A98A0A-E407-448D-B995-801DE4032EAE}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5098,13 +4810,13 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -5112,13 +4824,13 @@
         <v>2000</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5126,7 +4838,7 @@
         <v>1400</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -5137,7 +4849,7 @@
         <v>900</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C4">
         <v>30</v>
@@ -5148,109 +4860,10 @@
         <v>380</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C5">
         <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
-        <v>1400</v>
-      </c>
-      <c r="B6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7">
-        <v>1500</v>
-      </c>
-      <c r="B7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>500</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>200</v>
-      </c>
-      <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>100</v>
-      </c>
-      <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>1100</v>
-      </c>
-      <c r="B11" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>600</v>
-      </c>
-      <c r="B12" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>200</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>100</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -5261,132 +4874,6 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA203B3B-22C8-41C2-8C81-360644312FF4}">
-  <dimension ref="A1:F7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="17.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2">
-        <v>130</v>
-      </c>
-      <c r="F2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>142</v>
-      </c>
-      <c r="D3">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>141</v>
-      </c>
-      <c r="D4">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5">
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6">
-        <v>3800</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7">
-        <v>7500</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69705651-4E68-4E38-A266-812DDC145AF9}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
@@ -5415,103 +4902,103 @@
     </row>
     <row r="2" spans="2:8">
       <c r="B2" s="12" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C2" s="13"/>
     </row>
     <row r="3" spans="2:8">
       <c r="C3" s="13" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="2:8">
       <c r="C4" s="16" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G4" s="29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H4" s="29"/>
     </row>
     <row r="5" spans="2:8">
       <c r="C5" s="20" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E5" s="22"/>
       <c r="F5" s="23" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="G5" s="23" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="H5" s="24"/>
     </row>
     <row r="6" spans="2:8">
       <c r="C6" s="20" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E6" s="22"/>
       <c r="F6" s="23" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="G6" s="23" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="H6" s="24"/>
     </row>
     <row r="7" spans="2:8">
       <c r="C7" s="20" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E7" s="22"/>
       <c r="F7" s="23" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="G7" s="23"/>
       <c r="H7" s="24"/>
     </row>
     <row r="8" spans="2:8">
       <c r="C8" s="20" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E8" s="22"/>
       <c r="F8" s="23" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="G8" s="23"/>
       <c r="H8" s="24"/>
     </row>
     <row r="9" spans="2:8">
       <c r="C9" s="20" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E9" s="22"/>
       <c r="F9" s="25" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="G9" s="23"/>
       <c r="H9" s="24"/>
@@ -5524,123 +5011,123 @@
     </row>
     <row r="12" spans="2:8">
       <c r="C12" s="13" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="C13" s="16" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G13" s="29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H13" s="29"/>
     </row>
     <row r="14" spans="2:8">
       <c r="C14" s="20" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E14" s="22"/>
       <c r="F14" s="23" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="24"/>
     </row>
     <row r="15" spans="2:8">
       <c r="C15" s="20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E15" s="22"/>
       <c r="F15" s="23" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="G15" s="23" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H15" s="24"/>
     </row>
     <row r="16" spans="2:8">
       <c r="C16" s="20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="23" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="G16" s="23"/>
       <c r="H16" s="24"/>
     </row>
     <row r="17" spans="3:8">
       <c r="C17" s="20" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E17" s="22"/>
       <c r="F17" s="23" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="G17" s="23"/>
       <c r="H17" s="24"/>
     </row>
     <row r="18" spans="3:8">
       <c r="C18" s="20" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E18" s="22"/>
       <c r="F18" s="23" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G18" s="23"/>
       <c r="H18" s="24"/>
     </row>
     <row r="19" spans="3:8">
       <c r="C19" s="20" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E19" s="22"/>
       <c r="F19" s="25" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="G19" s="23"/>
       <c r="H19" s="24"/>
     </row>
     <row r="20" spans="3:8">
       <c r="C20" s="20" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="23" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="G20" s="23"/>
       <c r="H20" s="24"/>
@@ -5653,150 +5140,150 @@
     </row>
     <row r="23" spans="3:8">
       <c r="C23" s="13" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24" spans="3:8">
       <c r="C24" s="16" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F24" s="19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G24" s="29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H24" s="29"/>
     </row>
     <row r="25" spans="3:8">
       <c r="C25" s="20" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D25" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E25" s="26"/>
       <c r="F25" s="27" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="G25" s="23"/>
       <c r="H25" s="24"/>
     </row>
     <row r="26" spans="3:8">
       <c r="C26" s="20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E26" s="26"/>
       <c r="F26" s="28" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="G26" s="23" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H26" s="24"/>
     </row>
     <row r="27" spans="3:8">
       <c r="C27" s="20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D27" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E27" s="22"/>
       <c r="F27" s="23" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="G27" s="23"/>
       <c r="H27" s="24"/>
     </row>
     <row r="28" spans="3:8">
       <c r="C28" s="20" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D28" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E28" s="22"/>
       <c r="F28" s="23" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="G28" s="23"/>
       <c r="H28" s="24"/>
     </row>
     <row r="29" spans="3:8">
       <c r="C29" s="20" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D29" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E29" s="22"/>
       <c r="F29" s="23" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="G29" s="23"/>
       <c r="H29" s="24"/>
     </row>
     <row r="30" spans="3:8">
       <c r="C30" s="20" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D30" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E30" s="22"/>
       <c r="F30" s="23" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="G30" s="23" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="H30" s="24"/>
     </row>
     <row r="33" spans="3:8">
       <c r="C33" s="13" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34" spans="3:8">
       <c r="C34" s="16" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F34" s="19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H34" s="29"/>
     </row>
     <row r="35" spans="3:8">
       <c r="C35" s="20" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D35" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E35" s="22"/>
       <c r="F35" s="23"/>
@@ -5805,10 +5292,10 @@
     </row>
     <row r="36" spans="3:8">
       <c r="C36" s="20" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D36" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E36" s="22"/>
       <c r="F36" s="23"/>
@@ -5817,10 +5304,10 @@
     </row>
     <row r="37" spans="3:8">
       <c r="C37" s="20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D37" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E37" s="22"/>
       <c r="F37" s="23"/>
@@ -5829,10 +5316,10 @@
     </row>
     <row r="38" spans="3:8">
       <c r="C38" s="20" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="D38" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E38" s="22"/>
       <c r="F38" s="23"/>
@@ -5841,67 +5328,67 @@
     </row>
     <row r="41" spans="3:8">
       <c r="C41" s="13" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="42" spans="3:8">
       <c r="C42" s="16" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F42" s="19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H42" s="29"/>
     </row>
     <row r="43" spans="3:8">
       <c r="C43" s="20" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D43" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="23" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="G43" s="23" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="H43" s="24"/>
     </row>
     <row r="44" spans="3:8">
       <c r="C44" s="20" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D44" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="23" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="G44" s="23"/>
       <c r="H44" s="24"/>
     </row>
     <row r="45" spans="3:8">
       <c r="C45" s="20" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D45" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="23" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="G45" s="23"/>
       <c r="H45" s="24"/>
@@ -5914,81 +5401,81 @@
     </row>
     <row r="48" spans="3:8">
       <c r="C48" s="13" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="49" spans="3:8">
       <c r="C49" s="16" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="F49" s="19" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="H49" s="29"/>
     </row>
     <row r="50" spans="3:8">
       <c r="C50" s="20" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E50" s="22"/>
       <c r="F50" s="23" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="G50" s="23"/>
       <c r="H50" s="24"/>
     </row>
     <row r="51" spans="3:8">
       <c r="C51" s="20" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="23" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="G51" s="23"/>
       <c r="H51" s="24"/>
     </row>
     <row r="52" spans="3:8">
       <c r="C52" s="20" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D52" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="23" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="G52" s="23" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="H52" s="24"/>
     </row>
     <row r="53" spans="3:8">
       <c r="C53" s="20" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D53" s="21" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="23" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="G53" s="23"/>
       <c r="H53" s="24"/>

--- a/ExcelTool/MetaExporterCS/MetaDataXLS/Shop.xlsx
+++ b/ExcelTool/MetaExporterCS/MetaDataXLS/Shop.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BalloonBattle\trunk\Tools\ExcelTool\MetaExporterCS\MetaDataXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D96D607-1107-4027-80FC-A73E5C1A4409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4482FE-6F40-4F0B-8F55-AC04D0E68681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ShopConfig" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="ShopPackage" sheetId="5" r:id="rId3"/>
     <sheet name="ShopPackageDate" sheetId="8" r:id="rId4"/>
     <sheet name="ShopDailyReward" sheetId="7" r:id="rId5"/>
-    <sheet name="Description" sheetId="9" r:id="rId6"/>
+    <sheet name="ShopExchange" sheetId="10" r:id="rId6"/>
+    <sheet name="Description" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -821,6 +822,192 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Balloon01</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{46BE3238-ACBF-41D2-A37A-FA3494199D3A}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>사려는</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>자원</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{4F746DE1-DF85-46F8-B976-7FE26EF093AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>지불할</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>비용</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{BF1CF4CE-EF4C-4502-8BF0-90B7052B10C9}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>유성오</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">:
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="돋움"/>
+            <family val="3"/>
+            <charset val="129"/>
+          </rPr>
+          <t>환율</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+targetResourceType * rate = costResourceType</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Balloon01</author>
     <author>USER</author>
   </authors>
   <commentList>
@@ -2032,7 +2219,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="240">
   <si>
     <t>CostType</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -2855,12 +3042,28 @@
     <t>Ticket</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>targetResourceType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>costResourceType</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3023,6 +3226,14 @@
       <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -3714,7 +3925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D8D44C5-7F8E-4BED-9A14-9BCE480890DD}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -4798,7 +5009,7 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -4874,6 +5085,50 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CA66B25-41EB-40CF-BA46-C52CD452D4D1}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C2">
+        <v>2.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69705651-4E68-4E38-A266-812DDC145AF9}">
   <sheetPr>
     <tabColor theme="7" tint="0.59999389629810485"/>
